--- a/survey/SG_Sim_Eval_Survey_Responses.xlsx
+++ b/survey/SG_Sim_Eval_Survey_Responses.xlsx
@@ -1,17 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3405DB84-67FF-4878-9050-92AE94A2DC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="95">
   <si>
     <t>Timestamp</t>
   </si>
@@ -260,6 +281,27 @@
   </si>
   <si>
     <t>tiramigu112@gmail.com</t>
+  </si>
+  <si>
+    <t>Top x% Percentile of News Sorted by Sim Score vs. “Human-perceived” Similarity</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Top 20% Percentile</t>
+  </si>
+  <si>
+    <t>Top 40% Percentile</t>
+  </si>
+  <si>
+    <t>Top 60% Percentile</t>
+  </si>
+  <si>
+    <t>Top 80% Percentile</t>
+  </si>
+  <si>
+    <t>Top 100% Percentile</t>
   </si>
   <si>
     <t>administration</t>
@@ -280,18 +322,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -302,7 +345,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -312,49 +355,727 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Topic: fail</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Form Responses 1'!$C$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5333333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A143-452B-B71F-9420563E712C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427456994"/>
+        <c:axId val="98408058"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427456994"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>x-axis: relative cosine similarity score (from highest score to lower score (not 0), left to right)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.4285807291666658E-2"/>
+              <c:y val="0.91495956873315365"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98408058"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98408058"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>average human score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427456994"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Topic: sued</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Form Responses 1'!$C$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3999999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2511-4A42-85C4-7E8E302D5B87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1160676419"/>
+        <c:axId val="933574874"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1160676419"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>x-axis: relative cosine similarity score (from highest score to lower score (not 0), left to right)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933574874"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="933574874"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>average human score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160676419"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -544,26 +1265,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BY28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="83" width="18.88"/>
+    <col min="1" max="83" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,9 +1520,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44603.78316908565</v>
+        <v>44603.783169085647</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>73</v>
@@ -1029,7 +1753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44604.700337581016</v>
       </c>
@@ -1262,9 +1986,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>44604.70122079861</v>
+        <v>44604.701220798612</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>80</v>
@@ -1495,9 +2219,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44604.74856224537</v>
+        <v>44604.748562245368</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>81</v>
@@ -1728,9 +2452,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44606.552558125</v>
+        <v>44606.552558124997</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>82</v>
@@ -1961,7 +2685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2038,7 +2762,7 @@
       <c r="BX7" s="2"/>
       <c r="BY7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2115,7 +2839,7 @@
       <c r="BX8" s="2"/>
       <c r="BY8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2192,7 +2916,7 @@
       <c r="BX9" s="2"/>
       <c r="BY9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2269,7 +2993,7 @@
       <c r="BX10" s="2"/>
       <c r="BY10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2346,1532 +3070,1532 @@
       <c r="BX11" s="2"/>
       <c r="BY11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C2,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C2,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="D12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E2,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E2,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="F12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="I12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I2,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I2,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="J12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="N12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="O12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O2,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O2,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="P12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P2,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P2,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="Q12" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="R12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R2,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R2,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="S12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S2,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S2,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="T12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T2,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T2,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="U12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="V12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="W12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="X12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Y12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Z12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z2,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z2,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AA12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AB12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AC12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AD12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AE12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AF12" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AG12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG2,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG2,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AH12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AI12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI2,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI2,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AJ12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AK12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AL12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AM12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AN12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AO12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AP12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AQ12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AR12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AS12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AT12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AU12" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AV12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV2,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV2,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AW12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AY12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BD12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BG12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BH12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BI12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BJ12" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BK12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK2,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK2,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="BL12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL2,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL2,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="BM12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM2,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM2,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BN12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN2,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN2,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BO12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BP12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BQ12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BR12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BS12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BT12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT2,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT2,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BU12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BV12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV2,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV2,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BW12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BX12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BY12" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY2,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY2,""\d+""))"),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C3,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C3,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D3,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D3,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E3,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E3,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="F13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="I13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I3,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I3,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="J13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J3,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J3,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="K13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K3,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K3,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="L13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L3,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L3,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="M13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="O13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="P13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P3,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P3,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="Q13" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="R13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R3,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R3,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="S13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S3,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S3,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="T13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T3,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T3,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="U13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="V13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="W13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="X13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Y13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Z13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AA13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AB13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AC13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AD13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AE13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AF13" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AG13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AH13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AI13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AJ13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AK13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AL13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AM13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AN13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AO13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AP13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AQ13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AR13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AS13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AU13" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AV13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX3,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX3,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AY13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ3,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ3,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BA13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BC13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BH13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BI13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BJ13" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BK13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK3,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK3,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BL13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL3,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL3,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BM13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM3,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM3,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BN13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BO13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BP13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BQ13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ3,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ3,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BR13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BS13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BU13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU3,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU3,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BV13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BW13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BX13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BY13" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY3,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY3,""\d+""))"),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="D14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="F14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="G14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="H14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="I14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I4,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I4,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="J14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="K14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="M14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="N14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="O14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="P14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="R14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="S14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="T14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T4,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T4,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="U14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="V14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="W14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="X14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Y14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Z14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AA14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AB14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AC14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AD14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AE14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AF14" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AG14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AH14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AI14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AJ14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AK14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AL14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AM14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AN14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AO14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AP14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AQ14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="AR14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AS14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AT14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AU14" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AV14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW4,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW4,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="AX14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AY14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AZ14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BA14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BB14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BC14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BD14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BE14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BF14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BG14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BH14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BI14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BJ14" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BK14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK4,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK4,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="BL14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BM14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BN14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN4,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN4,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BO14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BP14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BQ14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ4,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ4,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BR14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BS14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BT14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BU14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BV14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV4,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV4,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BW14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BX14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BY14" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY4,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY4,""\d+""))"),2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="E15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E5,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E5,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="F15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="G15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="H15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H5,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H5,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="I15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="J15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="K15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K5,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K5,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="L15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L5,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L5,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="M15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M5,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M5,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="N15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N5,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N5,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="O15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="P15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="R15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R5,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R5,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="S15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="T15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T5,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T5,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="U15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="V15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V5,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V5,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="W15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W5,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W5,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="X15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X5,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X5,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Y15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y5,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y5,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Z15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="AA15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AB15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AC15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AD15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD5,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD5,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AE15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE5,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE5,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AF15" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AG15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="AH15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AI15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI5,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI5,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AJ15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AK15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK5,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK5,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AL15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AM15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="AN15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="AO15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="AP15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="AQ15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AR15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AS15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS5,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS5,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AU15" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AV15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AW15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AX15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX5,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX5,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AY15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AZ15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BA15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BB15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BC15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BD15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BE15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BF15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BG15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BH15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH5,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH5,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BI15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BJ15" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BK15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BL15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BM15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BN15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BO15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BP15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BQ15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BR15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BS15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BT15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BU15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BV15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BW15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BX15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX5,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX5,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BY15" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY5,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY5,""\d+""))"),2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(C6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(D6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="E16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(E6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="F16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(F6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="G16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(G6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="H16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(H6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="I16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(I6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="J16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(J6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="K16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(K6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="L16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L6,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(L6,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="M16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M6,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(M6,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="N16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(N6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="O16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(O6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="P16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(P6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="Q16" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Q6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="R16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R6,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(R6,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="S16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S6,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(S6,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="T16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T6,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(T6,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="U16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(U6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="V16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(V6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="W16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(W6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="X16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(X6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Y16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Y6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="Z16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(Z6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AA16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AA6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="AB16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AB6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AC16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AC6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AD16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AD6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AE16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AE6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AF16" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AF6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AG16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AG6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="AH16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AH6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AI16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AI6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AJ16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AJ6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AK16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK6,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AK6,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AL16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AL6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AM16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM6,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AM6,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AN16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AN6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AO16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AO6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AP16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AP6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AQ16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AQ6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AR16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AR6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AS6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AT6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AU16" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AU6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AV16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AV6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AW6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AX16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX6,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AX6,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="AY16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AY6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="AZ16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(AZ6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BA16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BA6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BB16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BB6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BC16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BC6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BD16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BD6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BE16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BE6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BF16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF6,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BF6,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BG16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BG6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BH16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BH6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BI16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BI6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BJ16" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BJ6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BK16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BK6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BL16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL6,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BL6,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BM16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM6,""\d+""))"),5.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BM6,""\d+""))"),5)</f>
         <v>5</v>
       </c>
       <c r="BN16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN6,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BN6,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BO16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO6,""\d+""))"),3.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BO6,""\d+""))"),3)</f>
         <v>3</v>
       </c>
       <c r="BP16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BP6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BQ16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ6,""\d+""))"),4.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BQ6,""\d+""))"),4)</f>
         <v>4</v>
       </c>
       <c r="BR16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BR6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BS16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS6,""\d+""))"),2.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BS6,""\d+""))"),2)</f>
         <v>2</v>
       </c>
       <c r="BT16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BT6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BU16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BU6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BV16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BV6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BW16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BW6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BX16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BX6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
       <c r="BY16" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY6,""\d+""))"),1.0)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("VALUE(REGEXEXTRACT(BY6,""\d+""))"),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:77" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3948,309 +4672,309 @@
       <c r="BX17" s="2"/>
       <c r="BY17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:77" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
-        <f t="shared" ref="C18:BY18" si="1">AVERAGE(C12:C16)</f>
+        <f t="shared" ref="C18:BY18" ca="1" si="0">AVERAGE(C12:C16)</f>
         <v>2.6</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.6</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.6</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.8</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.6</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.6</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.4</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.8</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.8</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.8</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.4</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.4</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.8</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="AI18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AJ18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.4</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AP18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="AQ18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.4</v>
       </c>
       <c r="AT18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.4</v>
       </c>
       <c r="AU18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="AV18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="AW18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AX18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.8</v>
       </c>
       <c r="AY18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="AZ18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.6</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="BB18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="BC18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BD18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="BE18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="BF18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="BG18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="BH18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="BI18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="BJ18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="BK18" s="2">
-        <f t="shared" si="1"/>
-        <v>4.4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BL18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="BM18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.8</v>
       </c>
       <c r="BN18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.6</v>
       </c>
       <c r="BO18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="BP18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="BQ18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BR18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="BS18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BT18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="BU18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="BV18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="BW18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.4</v>
       </c>
       <c r="BX18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
       <c r="BY18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:77" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4327,284 +5051,310 @@
       <c r="BX19" s="2"/>
       <c r="BY19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:77" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <f>AVERAGE(C18:E18)</f>
-        <v>2.933333333</v>
+        <f ca="1">AVERAGE(C18:E18)</f>
+        <v>2.9333333333333336</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
-        <f>AVERAGE(F18:H18)</f>
-        <v>2.266666667</v>
+        <f ca="1">AVERAGE(F18:H18)</f>
+        <v>2.2666666666666666</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2">
-        <f>AVERAGE(I18:K18)</f>
-        <v>2.666666667</v>
+        <f ca="1">AVERAGE(I18:K18)</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2">
-        <f>AVERAGE(L18:N18)</f>
-        <v>2.333333333</v>
+        <f ca="1">AVERAGE(L18:N18)</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="3">
-        <f>AVERAGE(O18:Q18)</f>
-        <v>2.266666667</v>
+        <f ca="1">AVERAGE(O18:Q18)</f>
+        <v>2.2666666666666666</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2">
-        <f>AVERAGE(R18:T18)</f>
-        <v>4.533333333</v>
+        <f ca="1">AVERAGE(R18:T18)</f>
+        <v>4.5333333333333332</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2">
-        <f>AVERAGE(U18:W18)</f>
-        <v>1.4</v>
+        <f ca="1">AVERAGE(U18:W18)</f>
+        <v>1.4000000000000001</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2">
-        <f>AVERAGE(X18:Z18)</f>
-        <v>1.333333333</v>
+        <f ca="1">AVERAGE(X18:Z18)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2">
-        <f>AVERAGE(AA18:AC18)</f>
+        <f ca="1">AVERAGE(AA18:AC18)</f>
         <v>1.8</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="3">
-        <f>AVERAGE(AD18:AF18)</f>
-        <v>1.4</v>
+        <f ca="1">AVERAGE(AD18:AF18)</f>
+        <v>1.3999999999999997</v>
       </c>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2">
-        <f>AVERAGE(AG18:AI18)</f>
-        <v>2.2</v>
+        <f ca="1">AVERAGE(AG18:AI18)</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2">
-        <f>AVERAGE(AJ18:AL18)</f>
+        <f ca="1">AVERAGE(AJ18:AL18)</f>
         <v>2</v>
       </c>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2">
-        <f>AVERAGE(AM18:AO18)</f>
-        <v>2.266666667</v>
+        <f ca="1">AVERAGE(AM18:AO18)</f>
+        <v>2.2666666666666666</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2">
-        <f>AVERAGE(AP18:AR18)</f>
-        <v>1.866666667</v>
+        <f ca="1">AVERAGE(AP18:AR18)</f>
+        <v>1.8666666666666665</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
       <c r="AU20" s="3">
-        <f>AVERAGE(AS18:AU18)</f>
-        <v>1.466666667</v>
+        <f ca="1">AVERAGE(AS18:AU18)</f>
+        <v>1.4666666666666668</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
       <c r="AX20" s="2">
-        <f>AVERAGE(AV18:AX18)</f>
-        <v>2.333333333</v>
+        <f ca="1">AVERAGE(AV18:AX18)</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2">
-        <f>AVERAGE(AY18:BA18)</f>
+        <f ca="1">AVERAGE(AY18:BA18)</f>
         <v>2</v>
       </c>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="2">
-        <f>AVERAGE(BB18:BD18)</f>
+        <f ca="1">AVERAGE(BB18:BD18)</f>
         <v>1.8</v>
       </c>
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2">
-        <f>AVERAGE(BE18:BG18)</f>
-        <v>1.733333333</v>
+        <f ca="1">AVERAGE(BE18:BG18)</f>
+        <v>1.7333333333333334</v>
       </c>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
       <c r="BJ20" s="3">
-        <f>AVERAGE(BH18:BJ18)</f>
+        <f ca="1">AVERAGE(BH18:BJ18)</f>
         <v>1.8</v>
       </c>
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
       <c r="BM20" s="2">
-        <f>AVERAGE(BK18:BM18)</f>
-        <v>4.066666667</v>
+        <f ca="1">AVERAGE(BK18:BM18)</f>
+        <v>4.0666666666666664</v>
       </c>
       <c r="BN20" s="2"/>
       <c r="BO20" s="2"/>
       <c r="BP20" s="2">
-        <f>AVERAGE(BN18:BP18)</f>
-        <v>1.933333333</v>
+        <f ca="1">AVERAGE(BN18:BP18)</f>
+        <v>1.9333333333333336</v>
       </c>
       <c r="BQ20" s="2"/>
       <c r="BR20" s="2"/>
       <c r="BS20" s="2">
-        <f>AVERAGE(BQ18:BS18)</f>
+        <f ca="1">AVERAGE(BQ18:BS18)</f>
         <v>2</v>
       </c>
       <c r="BT20" s="2"/>
       <c r="BU20" s="2"/>
       <c r="BV20" s="2">
-        <f>AVERAGE(BT18:BV18)</f>
+        <f ca="1">AVERAGE(BT18:BV18)</f>
         <v>1.8</v>
       </c>
       <c r="BW20" s="2"/>
       <c r="BX20" s="2"/>
       <c r="BY20" s="2">
-        <f>AVERAGE(BW18:BY18)</f>
-        <v>1.533333333</v>
+        <f ca="1">AVERAGE(BW18:BY18)</f>
+        <v>1.5333333333333332</v>
       </c>
     </row>
-    <row r="23">
+    <row r="22" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="1">
-        <f>E20</f>
-        <v>2.933333333</v>
-      </c>
-      <c r="D23" s="1">
-        <f>H20</f>
-        <v>2.266666667</v>
-      </c>
-      <c r="E23" s="1">
-        <f>K20</f>
-        <v>2.666666667</v>
-      </c>
-      <c r="F23" s="1">
-        <f>N20</f>
-        <v>2.333333333</v>
-      </c>
-      <c r="G23" s="1">
-        <f>Q20</f>
-        <v>2.266666667</v>
+        <v>84</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1">
-        <f>T20</f>
-        <v>4.533333333</v>
+        <f ca="1">E20</f>
+        <v>2.9333333333333336</v>
       </c>
       <c r="D24" s="1">
-        <f>W20</f>
-        <v>1.4</v>
+        <f ca="1">H20</f>
+        <v>2.2666666666666666</v>
       </c>
       <c r="E24" s="1">
-        <f>Z20</f>
-        <v>1.333333333</v>
+        <f ca="1">K20</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="F24" s="1">
-        <f>AC20</f>
+        <f ca="1">N20</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G24" s="1">
+        <f ca="1">Q20</f>
+        <v>2.2666666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="1">
+        <f ca="1">T20</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="D25" s="1">
+        <f ca="1">W20</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <f ca="1">Z20</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F25" s="1">
+        <f ca="1">AC20</f>
         <v>1.8</v>
       </c>
-      <c r="G24" s="1">
-        <f>AF20</f>
-        <v>1.4</v>
+      <c r="G25" s="1">
+        <f ca="1">AF20</f>
+        <v>1.3999999999999997</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1">
-        <f>AI20</f>
-        <v>2.2</v>
-      </c>
-      <c r="D25" s="1">
-        <f>AL20</f>
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <f>AO20</f>
-        <v>2.266666667</v>
-      </c>
-      <c r="F25" s="1">
-        <f>AR20</f>
-        <v>1.866666667</v>
-      </c>
-      <c r="G25" s="1">
-        <f>AU20</f>
-        <v>1.466666667</v>
+    <row r="26" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1">
+        <f ca="1">AI20</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <f ca="1">AL20</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <f ca="1">AO20</f>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="F26" s="1">
+        <f ca="1">AR20</f>
+        <v>1.8666666666666665</v>
+      </c>
+      <c r="G26" s="1">
+        <f ca="1">AU20</f>
+        <v>1.4666666666666668</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="1">
-        <f>AX20</f>
-        <v>2.333333333</v>
-      </c>
-      <c r="D26" s="1">
-        <f>BA20</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <f>BD20</f>
+    <row r="27" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1">
+        <f ca="1">AX20</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="D27" s="1">
+        <f ca="1">BA20</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <f ca="1">BD20</f>
         <v>1.8</v>
       </c>
-      <c r="F26" s="1">
-        <f>BG20</f>
-        <v>1.733333333</v>
-      </c>
-      <c r="G26" s="1">
-        <f>BJ20</f>
+      <c r="F27" s="1">
+        <f ca="1">BG20</f>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="G27" s="1">
+        <f ca="1">BJ20</f>
         <v>1.8</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="1">
-        <f>BM20</f>
-        <v>4.066666667</v>
-      </c>
-      <c r="D27" s="1">
-        <f>BP20</f>
-        <v>1.933333333</v>
-      </c>
-      <c r="E27" s="1">
-        <f>BS20</f>
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
-        <f>BV20</f>
+    <row r="28" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1">
+        <f ca="1">BM20</f>
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="D28" s="1">
+        <f ca="1">BP20</f>
+        <v>1.9333333333333336</v>
+      </c>
+      <c r="E28" s="1">
+        <f ca="1">BS20</f>
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <f ca="1">BV20</f>
         <v>1.8</v>
       </c>
-      <c r="G27" s="1">
-        <f>BY20</f>
-        <v>1.533333333</v>
+      <c r="G28" s="1">
+        <f ca="1">BY20</f>
+        <v>1.5333333333333332</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>